--- a/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38986090-6A66-40D5-BE77-ADAD799B58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B36AD5F-AF9E-4108-8176-808F480C1C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -606,7 +606,83 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
+    <t>洛兰郊外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛兰深处</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒谷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒灵之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7088,210,-262</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2078,209,1237</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7171,215,-2890</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2179,210,1963</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7042,209,-2473</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1641,215,-262</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1784,215,-496</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛兰深处去洛兰郊外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒谷去洛兰深处</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒灵之地去荒谷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失落营地去荒灵之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2469,210,2021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2350,209,1526</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2019,215,-199</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2069,215,-496</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1438,19,-3223</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +751,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +784,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -758,12 +859,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39988402966399123"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -771,9 +900,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -808,6 +934,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R67"/>
+  <dimension ref="C1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1128,10 +1282,14 @@
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="28.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="28.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1191,2177 +1349,2315 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
-        <v>101</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>10001</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="E6" s="4">
         <v>10002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
+    <row r="7" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10003</v>
+      </c>
+      <c r="F7" s="18">
+        <v>3</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10004</v>
+      </c>
+      <c r="F8" s="17">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F9" s="17">
+        <v>6</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>10011</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10003</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>10012</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10004</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>10013</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F12" s="17">
+        <v>6</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>10014</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <v>6</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
         <v>1001</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E14" s="8">
         <v>10001</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F14" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
+    <row r="15" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
         <v>1002</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E15" s="11">
         <v>10002</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="7">
-        <f>J8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <f>IF(K8&lt;2800,2910,K8)</f>
-        <v>2910</v>
-      </c>
-      <c r="P8" s="7">
-        <f>L8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="str">
-        <f>N8&amp;","&amp;O8&amp;","&amp;P8</f>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
+      <c r="N15" s="6">
+        <f>J15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <f>IF(K15&lt;2800,2910,K15)</f>
+        <v>2910</v>
+      </c>
+      <c r="P15" s="6">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f>N15&amp;","&amp;O15&amp;","&amp;P15</f>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
         <v>1003</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E16" s="8">
         <v>10003</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F16" s="8">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9:N67" si="0">J9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" ref="O9:O67" si="1">IF(K9&lt;2800,2910,K9)</f>
-        <v>2910</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" ref="P9:P67" si="2">L9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="str">
-        <f t="shared" ref="R9:R67" si="3">N9&amp;","&amp;O9&amp;","&amp;P9</f>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
+      <c r="N16" s="6">
+        <f t="shared" ref="N16:N74" si="0">J16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" ref="O16:O74" si="1">IF(K16&lt;2800,2910,K16)</f>
+        <v>2910</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" ref="P16:P74" si="2">L16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" ref="R16:R74" si="3">N16&amp;","&amp;O16&amp;","&amp;P16</f>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
         <v>1004</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E17" s="8">
         <v>10004</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
+      <c r="N17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
         <v>1005</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E18" s="8">
         <v>10005</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F18" s="8">
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
+      <c r="N18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
         <v>1006</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E19" s="8">
         <v>10006</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F19" s="8">
         <v>12</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+      <c r="N19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
         <v>1007</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E20" s="8">
         <v>10007</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F20" s="8">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
+      <c r="N20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
         <v>1008</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E21" s="8">
         <v>10008</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P14" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
+      <c r="N21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
         <v>1009</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E22" s="8">
         <v>10001</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P15" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
+      <c r="N22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
         <v>1010</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E23" s="11">
         <v>10002</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="8">
+      <c r="N23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
         <v>1011</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E24" s="8">
         <v>10004</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F24" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
+      <c r="N24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
         <v>1012</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E25" s="8">
         <v>10008</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="8">
+      <c r="N25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
         <v>1013</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E26" s="8">
         <v>10004</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8">
+      <c r="N26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
         <v>1014</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E27" s="8">
         <v>10007</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F27" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="8">
+      <c r="N27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
         <v>2001</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E28" s="8">
         <v>20001</v>
       </c>
-      <c r="F21" s="9">
-        <v>15</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F28" s="8">
+        <v>15</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="N21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8">
+      <c r="H28" s="13"/>
+      <c r="N28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
         <v>2002</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E29" s="8">
         <v>20002</v>
       </c>
-      <c r="F22" s="9">
-        <v>15</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="F29" s="8">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="8">
+      <c r="N29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
         <v>2003</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E30" s="8">
         <v>20003</v>
       </c>
-      <c r="F23" s="9">
-        <v>15</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="F30" s="8">
+        <v>15</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8">
+      <c r="N30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7">
         <v>2004</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E31" s="8">
         <v>20004</v>
       </c>
-      <c r="F24" s="9">
-        <v>15</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="F31" s="8">
+        <v>15</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="8">
+      <c r="N31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
         <v>2005</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E32" s="8">
         <v>20005</v>
       </c>
-      <c r="F25" s="9">
-        <v>15</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="F32" s="8">
+        <v>15</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8">
+      <c r="N32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7">
         <v>2011</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E33" s="8">
         <v>20001</v>
       </c>
-      <c r="F26" s="9">
-        <v>15</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F33" s="8">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="8">
+      <c r="N33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
         <v>2012</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E34" s="8">
         <v>20002</v>
       </c>
-      <c r="F27" s="9">
-        <v>15</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="F34" s="8">
+        <v>15</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8">
+      <c r="N34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7">
         <v>2013</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E35" s="8">
         <v>20001</v>
       </c>
-      <c r="F28" s="9">
-        <v>15</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="F35" s="8">
+        <v>15</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="8">
+      <c r="N35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7">
         <v>2014</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E36" s="8">
         <v>20004</v>
       </c>
-      <c r="F29" s="9">
-        <v>15</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="F36" s="8">
+        <v>15</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P29" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8">
+      <c r="N36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7">
         <v>3001</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E37" s="8">
         <v>30001</v>
       </c>
-      <c r="F30" s="9">
-        <v>15</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="F37" s="8">
+        <v>15</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="N30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P30" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="8">
+      <c r="H37" s="13"/>
+      <c r="N37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7">
         <v>3002</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E38" s="8">
         <v>30002</v>
       </c>
-      <c r="F31" s="9">
-        <v>15</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="F38" s="8">
+        <v>15</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P31" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8">
+      <c r="N38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="7">
         <v>3003</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E39" s="8">
         <v>30003</v>
       </c>
-      <c r="F32" s="9">
-        <v>15</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="F39" s="8">
+        <v>15</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P32" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="8">
+      <c r="N39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7">
         <v>3004</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E40" s="8">
         <v>30004</v>
       </c>
-      <c r="F33" s="9">
-        <v>15</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="F40" s="8">
+        <v>15</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P33" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8">
+      <c r="N40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7">
         <v>3005</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E41" s="8">
         <v>30005</v>
       </c>
-      <c r="F34" s="9">
-        <v>15</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="F41" s="8">
+        <v>15</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P34" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="8">
+      <c r="N41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7">
         <v>3006</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E42" s="8">
         <v>30006</v>
       </c>
-      <c r="F35" s="9">
-        <v>15</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="F42" s="8">
+        <v>15</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="N35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P35" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8">
+      <c r="N42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7">
         <v>3011</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E43" s="8">
         <v>30001</v>
       </c>
-      <c r="F36" s="9">
-        <v>15</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="F43" s="8">
+        <v>15</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="N36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P36" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="8">
+      <c r="N43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7">
         <v>3012</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E44" s="8">
         <v>30002</v>
       </c>
-      <c r="F37" s="9">
-        <v>15</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F44" s="8">
+        <v>15</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="N37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P37" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8">
+      <c r="N44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7">
         <v>3013</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E45" s="8">
         <v>30002</v>
       </c>
-      <c r="F38" s="9">
-        <v>15</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="F45" s="8">
+        <v>15</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="8">
+      <c r="N45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7">
         <v>3014</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E46" s="8">
         <v>30004</v>
       </c>
-      <c r="F39" s="9">
-        <v>15</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="F46" s="8">
+        <v>15</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H46" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P39" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8">
+      <c r="N46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7">
         <v>3015</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E47" s="8">
         <v>30005</v>
       </c>
-      <c r="F40" s="9">
-        <v>15</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="F47" s="8">
+        <v>15</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P40" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="8">
+      <c r="N47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7">
         <v>3016</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E48" s="8">
         <v>30006</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F48" s="8">
         <v>16</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H48" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8">
+    <row r="49" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7">
         <v>4001</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E49" s="8">
         <v>40001</v>
       </c>
-      <c r="F42" s="9">
-        <v>15</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="F49" s="8">
+        <v>15</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="N42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P42" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="8">
+      <c r="H49" s="13"/>
+      <c r="N49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7">
         <v>4002</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E50" s="8">
         <v>40002</v>
       </c>
-      <c r="F43" s="9">
-        <v>15</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="F50" s="8">
+        <v>15</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H50" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="N43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P43" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8">
+      <c r="N50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="7">
         <v>4003</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E51" s="8">
         <v>40003</v>
       </c>
-      <c r="F44" s="9">
-        <v>15</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="F51" s="8">
+        <v>15</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="N44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P44" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="8">
+      <c r="N51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7">
         <v>4004</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E52" s="8">
         <v>40004</v>
       </c>
-      <c r="F45" s="9">
-        <v>15</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="F52" s="8">
+        <v>15</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="N45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P45" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8">
+      <c r="N52" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="7">
         <v>4005</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E53" s="8">
         <v>40005</v>
       </c>
-      <c r="F46" s="9">
-        <v>15</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="F53" s="8">
+        <v>15</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N46" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P46" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="8">
+      <c r="N53" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P53" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7">
         <v>4006</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E54" s="8">
         <v>40006</v>
       </c>
-      <c r="F47" s="9">
-        <v>15</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="F54" s="8">
+        <v>15</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="N47" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P47" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8">
+      <c r="N54" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="7">
         <v>4007</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E55" s="8">
         <v>40007</v>
       </c>
-      <c r="F48" s="9">
-        <v>15</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="F55" s="8">
+        <v>15</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P48" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="8">
+      <c r="N55" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P55" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7">
         <v>4011</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E56" s="8">
         <v>40001</v>
       </c>
-      <c r="F49" s="12">
-        <v>15</v>
-      </c>
-      <c r="G49" s="17" t="s">
+      <c r="F56" s="11">
+        <v>15</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="N49" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P49" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8">
+      <c r="N56" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P56" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7">
         <v>4012</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E57" s="8">
         <v>40001</v>
       </c>
-      <c r="F50" s="12">
-        <v>15</v>
-      </c>
-      <c r="G50" s="17" t="s">
+      <c r="F57" s="11">
+        <v>15</v>
+      </c>
+      <c r="G57" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N50" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P50" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="8">
+      <c r="N57" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7">
         <v>4013</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E58" s="8">
         <v>40003</v>
       </c>
-      <c r="F51" s="12">
-        <v>15</v>
-      </c>
-      <c r="G51" s="10" t="s">
+      <c r="F58" s="11">
+        <v>15</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="N51" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P51" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8">
+      <c r="N58" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="7">
         <v>4014</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E59" s="8">
         <v>40004</v>
       </c>
-      <c r="F52" s="12">
-        <v>15</v>
-      </c>
-      <c r="G52" s="10" t="s">
+      <c r="F59" s="11">
+        <v>15</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="N52" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P52" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="8">
+      <c r="N59" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7">
         <v>4015</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E60" s="8">
         <v>40006</v>
       </c>
-      <c r="F53" s="12">
-        <v>15</v>
-      </c>
-      <c r="G53" s="10" t="s">
+      <c r="F60" s="11">
+        <v>15</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="N53" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P53" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8">
+      <c r="N60" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="7">
         <v>4016</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E61" s="8">
         <v>40002</v>
       </c>
-      <c r="F54" s="12">
-        <v>15</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="F61" s="11">
+        <v>15</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H61" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="N54" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P54" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="8">
+      <c r="N61" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7">
         <v>5001</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E62" s="8">
         <v>50001</v>
       </c>
-      <c r="F55" s="12">
-        <v>15</v>
-      </c>
-      <c r="G55" s="10" t="s">
+      <c r="F62" s="11">
+        <v>15</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N55" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P55" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8">
+      <c r="N62" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="7">
         <v>5002</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E63" s="8">
         <v>50002</v>
       </c>
-      <c r="F56" s="12">
-        <v>15</v>
-      </c>
-      <c r="G56" s="10" t="s">
+      <c r="F63" s="11">
+        <v>15</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H63" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N56" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P56" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="8">
+      <c r="N63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7">
         <v>5003</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E64" s="8">
         <v>50003</v>
       </c>
-      <c r="F57" s="12">
-        <v>15</v>
-      </c>
-      <c r="G57" s="10" t="s">
+      <c r="F64" s="11">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="N57" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P57" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8">
+      <c r="N64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="7">
         <v>5004</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E65" s="8">
         <v>50004</v>
       </c>
-      <c r="F58" s="12">
-        <v>15</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="F65" s="11">
+        <v>15</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H65" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="N58" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P58" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="8">
+      <c r="N65" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7">
         <v>5005</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E66" s="8">
         <v>50005</v>
       </c>
-      <c r="F59" s="12">
-        <v>15</v>
-      </c>
-      <c r="G59" s="10" t="s">
+      <c r="F66" s="11">
+        <v>15</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H66" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="N59" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P59" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="8">
+      <c r="N66" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7">
         <v>5006</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E67" s="8">
         <v>50006</v>
       </c>
-      <c r="F60" s="12">
-        <v>15</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="F67" s="11">
+        <v>15</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="N60" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P60" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="8">
+      <c r="N67" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7">
         <v>5007</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D68" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E68" s="8">
         <v>50007</v>
       </c>
-      <c r="F61" s="12">
-        <v>15</v>
-      </c>
-      <c r="G61" s="10" t="s">
+      <c r="F68" s="11">
+        <v>15</v>
+      </c>
+      <c r="G68" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H68" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N61" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P61" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="8">
+      <c r="N68" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="7">
         <v>5011</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E69" s="8">
         <v>50001</v>
       </c>
-      <c r="F62" s="12">
-        <v>15</v>
-      </c>
-      <c r="G62" s="10" t="s">
+      <c r="F69" s="11">
+        <v>15</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="N62" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P62" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="8">
+      <c r="N69" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P69" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7">
         <v>5012</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E70" s="8">
         <v>50002</v>
       </c>
-      <c r="F63" s="12">
-        <v>15</v>
-      </c>
-      <c r="G63" s="10" t="s">
+      <c r="F70" s="11">
+        <v>15</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H70" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N63" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P63" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="8">
+      <c r="N70" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="7">
         <v>5013</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E71" s="8">
         <v>50003</v>
       </c>
-      <c r="F64" s="12">
-        <v>15</v>
-      </c>
-      <c r="G64" s="10" t="s">
+      <c r="F71" s="11">
+        <v>15</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H71" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="N64" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P64" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="8">
+      <c r="N71" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P71" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7">
         <v>5014</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E72" s="8">
         <v>50004</v>
       </c>
-      <c r="F65" s="12">
-        <v>15</v>
-      </c>
-      <c r="G65" s="10" t="s">
+      <c r="F72" s="11">
+        <v>15</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H72" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="N65" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P65" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="8">
+      <c r="N72" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P72" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7">
         <v>5015</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E73" s="8">
         <v>50005</v>
       </c>
-      <c r="F66" s="12">
-        <v>15</v>
-      </c>
-      <c r="G66" s="10" t="s">
+      <c r="F73" s="11">
+        <v>15</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H73" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="N66" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P66" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="8">
+      <c r="N73" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P73" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7">
         <v>5016</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E74" s="8">
         <v>50006</v>
       </c>
-      <c r="F67" s="9">
-        <v>15</v>
-      </c>
-      <c r="G67" s="10" t="s">
+      <c r="F74" s="8">
+        <v>15</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H74" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N67" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="7">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P67" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="7" t="str">
+      <c r="N74" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P74" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,2910,0</v>
       </c>

--- a/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B36AD5F-AF9E-4108-8176-808F480C1C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657866F-757C-49CE-BC76-DC060CDE745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="294">
   <si>
     <t>Id</t>
   </si>
@@ -650,22 +650,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>洛兰深处去洛兰郊外</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒谷去洛兰深处</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒灵之地去荒谷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>失落营地去荒灵之地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>-2469,210,2021</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -683,6 +667,342 @@
   </si>
   <si>
     <t>1438,19,-3223</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城遗址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹圣地一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹圣地二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往沙漠遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往古城遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往沙漠之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往洛兰郊外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往洛兰深处</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往荒谷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往荒灵之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往遗迹圣地一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2314,-38,2687</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5623,-30,-180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5995,-26,-137</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7395,-50,-1220</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2496,-50,-825</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3282,843,20651</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6176,843,18803</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘3915,619,-5102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下矿洞一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下矿洞二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下矿洞三层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往山谷之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往山谷遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往地下矿洞一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往地下矿洞二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5276,248,-10230</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>155,249,-15149</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4941,249,-2897</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1628,-63,-14790</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9885,-63,-12290</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8194,-103,-6456</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-2115,-103,-18660</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1917,-26,-17620</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰森营地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵城堡一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵城堡二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往奇幻冰森</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往冰森营地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往精灵之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往精灵城堡一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1170,34,4442</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1607,11,4535</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3167,11,-4380</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4817,6,-3756</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2040,6,-2119</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4934,31,1264</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4511,31,-2908</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4294,3,-3656</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灵神庙一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灵神庙二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灵之巢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往影月之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往勇者之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往暗灵神庙一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往暗灵神庙二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3672,0,-4869</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5429,0,-1597</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3709,0,4114</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>610,1175,5472</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>305,1286,-4808</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2502,1401,4938</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4206,1819,-6932</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-926,1050,2669</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5765,50,-137</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6030,50,-1220</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2542,843,20621</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3946,750,-4448</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>74,465,-14370</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9115,50,-12310</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2130,50,-1755</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1290,50,-17390</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1459,148,3810</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4817,178,-3071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3800,180,1300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4294,143,-2850</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4540,116,-1597</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>305,1286,-4808</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4107,1512,-5749</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-136,722,2372</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -962,6 +1282,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:R74"/>
+  <dimension ref="C1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1287,9 +1613,9 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>10001</v>
       </c>
@@ -1369,7 +1695,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>10002</v>
       </c>
@@ -1389,7 +1715,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>10003</v>
       </c>
@@ -1409,7 +1735,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>10004</v>
       </c>
@@ -1429,35 +1755,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>10011</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E10" s="4">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F10" s="18">
         <v>3</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>10012</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E11" s="4">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="F11" s="17">
         <v>5</v>
@@ -1466,18 +1792,18 @@
         <v>201</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>10013</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E12" s="4">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="F12" s="17">
         <v>6</v>
@@ -1486,17 +1812,19 @@
         <v>202</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>10014</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="22"/>
+        <v>220</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10004</v>
+      </c>
       <c r="F13" s="22">
         <v>6</v>
       </c>
@@ -1504,1250 +1832,760 @@
         <v>203</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>20001</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="22">
+        <v>20002</v>
+      </c>
+      <c r="F14" s="28">
+        <v>20</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>20002</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="22">
+        <v>20003</v>
+      </c>
+      <c r="F15" s="28">
+        <v>23</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>20003</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E16" s="22">
+        <v>20004</v>
+      </c>
+      <c r="F16" s="28">
+        <v>25</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>20004</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="22">
+        <v>20005</v>
+      </c>
+      <c r="F17" s="28">
+        <v>27</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>20011</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="22">
+        <v>20001</v>
+      </c>
+      <c r="F18" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7">
-        <v>1002</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11">
-        <v>10002</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="G18" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>20012</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="22">
+        <v>20002</v>
+      </c>
+      <c r="F19" s="22">
         <v>1</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="6">
-        <f>J15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <f>IF(K15&lt;2800,2910,K15)</f>
-        <v>2910</v>
-      </c>
-      <c r="P15" s="6">
-        <f>L15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="6" t="str">
-        <f>N15&amp;","&amp;O15&amp;","&amp;P15</f>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
-        <v>1003</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
-        <v>10003</v>
-      </c>
-      <c r="F16" s="8">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" ref="N16:N74" si="0">J16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" ref="O16:O74" si="1">IF(K16&lt;2800,2910,K16)</f>
-        <v>2910</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" ref="P16:P74" si="2">L16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6" t="str">
-        <f t="shared" ref="R16:R74" si="3">N16&amp;","&amp;O16&amp;","&amp;P16</f>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10004</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="G19" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>20013</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="22">
+        <v>20003</v>
+      </c>
+      <c r="F20" s="22">
         <v>1</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="7">
-        <v>1005</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="8">
-        <v>10005</v>
-      </c>
-      <c r="F18" s="8">
-        <v>5</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7">
-        <v>1006</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="8">
-        <v>10006</v>
-      </c>
-      <c r="F19" s="8">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7">
-        <v>1007</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>20014</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="22">
+        <v>20004</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="22">
+        <v>30002</v>
+      </c>
+      <c r="F22" s="28">
         <v>32</v>
       </c>
-      <c r="E20" s="8">
-        <v>10007</v>
-      </c>
-      <c r="F20" s="8">
-        <v>8</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="G22" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>30002</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="22">
+        <v>30003</v>
+      </c>
+      <c r="F23" s="28">
         <v>34</v>
       </c>
-      <c r="N20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7">
-        <v>1008</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="G23" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>30003</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="22">
+        <v>30004</v>
+      </c>
+      <c r="F24" s="28">
         <v>35</v>
       </c>
-      <c r="E21" s="8">
-        <v>10008</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="G24" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>30004</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="22">
+        <v>30005</v>
+      </c>
+      <c r="F25" s="28">
+        <v>36</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>30011</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="22">
+        <v>30001</v>
+      </c>
+      <c r="F26" s="22">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7">
-        <v>1009</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="G26" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>30012</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="22">
+        <v>30002</v>
+      </c>
+      <c r="F27" s="22">
         <v>1</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7">
-        <v>1010</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="11">
-        <v>10002</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="G27" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>30013</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="22">
+        <v>30003</v>
+      </c>
+      <c r="F28" s="22">
         <v>1</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="G28" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>30014</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="22">
+        <v>30004</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="22">
+        <v>40002</v>
+      </c>
+      <c r="F30" s="28">
         <v>42</v>
       </c>
-      <c r="N23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7">
-        <v>1011</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="8">
-        <v>10004</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="G30" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>40002</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="22">
+        <v>40003</v>
+      </c>
+      <c r="F31" s="28">
+        <v>44</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>40003</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="22">
+        <v>40004</v>
+      </c>
+      <c r="F32" s="28">
+        <v>45</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>40004</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="22">
+        <v>40005</v>
+      </c>
+      <c r="F33" s="28">
+        <v>46</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>40011</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="22">
+        <v>40001</v>
+      </c>
+      <c r="F34" s="22">
         <v>1</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="8">
-        <v>10008</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="G34" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>40012</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="22">
+        <v>40002</v>
+      </c>
+      <c r="F35" s="22">
         <v>1</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7">
-        <v>1013</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="8">
-        <v>10004</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="G35" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>40013</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="22">
+        <v>40003</v>
+      </c>
+      <c r="F36" s="22">
         <v>1</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7">
-        <v>1014</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="G36" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>40014</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="22">
+        <v>40004</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <v>50001</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="22">
+        <v>50002</v>
+      </c>
+      <c r="F38" s="28">
         <v>52</v>
       </c>
-      <c r="E27" s="8">
-        <v>10007</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="G38" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>50002</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="22">
+        <v>50003</v>
+      </c>
+      <c r="F39" s="28">
+        <v>54</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>50003</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="22">
+        <v>50004</v>
+      </c>
+      <c r="F40" s="28">
+        <v>55</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>50004</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="22">
+        <v>50005</v>
+      </c>
+      <c r="F41" s="28">
+        <v>56</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <v>50011</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="22">
+        <v>50001</v>
+      </c>
+      <c r="F42" s="22">
         <v>1</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7">
-        <v>2001</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="8">
-        <v>20001</v>
-      </c>
-      <c r="F28" s="8">
-        <v>15</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="N28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P28" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="8">
-        <v>20002</v>
-      </c>
-      <c r="F29" s="8">
-        <v>15</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="8">
-        <v>20003</v>
-      </c>
-      <c r="F30" s="8">
-        <v>15</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P30" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="7">
-        <v>2004</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="8">
-        <v>20004</v>
-      </c>
-      <c r="F31" s="8">
-        <v>15</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="7">
-        <v>2005</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="8">
-        <v>20005</v>
-      </c>
-      <c r="F32" s="8">
-        <v>15</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="8">
-        <v>20001</v>
-      </c>
-      <c r="F33" s="8">
-        <v>15</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P33" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="8">
-        <v>20002</v>
-      </c>
-      <c r="F34" s="8">
-        <v>15</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P34" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="7">
-        <v>2013</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="8">
-        <v>20001</v>
-      </c>
-      <c r="F35" s="8">
-        <v>15</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="7">
-        <v>2014</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="8">
-        <v>20004</v>
-      </c>
-      <c r="F36" s="8">
-        <v>15</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P36" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="7">
-        <v>3001</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="8">
-        <v>30001</v>
-      </c>
-      <c r="F37" s="8">
-        <v>15</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="N37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P37" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="7">
-        <v>3002</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="8">
-        <v>30002</v>
-      </c>
-      <c r="F38" s="8">
-        <v>15</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P38" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="7">
-        <v>3003</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="8">
-        <v>30003</v>
-      </c>
-      <c r="F39" s="8">
-        <v>15</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P39" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="7">
-        <v>3004</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="8">
-        <v>30004</v>
-      </c>
-      <c r="F40" s="8">
-        <v>15</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P40" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="7">
-        <v>3005</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="8">
-        <v>30005</v>
-      </c>
-      <c r="F41" s="8">
-        <v>15</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P41" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="7">
-        <v>3006</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="8">
-        <v>30006</v>
-      </c>
-      <c r="F42" s="8">
-        <v>15</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="N42" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P42" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="7">
-        <v>3011</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="8">
-        <v>30001</v>
-      </c>
-      <c r="F43" s="8">
-        <v>15</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P43" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="7">
-        <v>3012</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="8">
-        <v>30002</v>
-      </c>
-      <c r="F44" s="8">
-        <v>15</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P44" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="7">
-        <v>3013</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="8">
-        <v>30002</v>
-      </c>
-      <c r="F45" s="8">
-        <v>15</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N45" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P45" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
+      <c r="G42" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>50012</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="22">
+        <v>50002</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <v>50013</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="22">
+        <v>50003</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <v>50014</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="22">
+        <v>50004</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="7">
-        <v>3014</v>
+        <v>1001</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="E46" s="8">
-        <v>30004</v>
+        <v>10001</v>
       </c>
       <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P46" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,2910,0</v>
+      <c r="H46" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="7">
-        <v>3015</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="8">
-        <v>30005</v>
-      </c>
-      <c r="F47" s="8">
-        <v>15</v>
+        <v>1002</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="11">
+        <v>10002</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="0"/>
+        <f>J47</f>
         <v>0</v>
       </c>
       <c r="O47" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(K47&lt;2800,2910,K47)</f>
         <v>2910</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="2"/>
+        <f>L47</f>
         <v>0</v>
       </c>
       <c r="R47" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>N47&amp;","&amp;O47&amp;","&amp;P47</f>
         <v>0,2910,0</v>
       </c>
     </row>
     <row r="48" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="7">
-        <v>3016</v>
+        <v>1003</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="E48" s="8">
-        <v>30006</v>
+        <v>10003</v>
       </c>
       <c r="F48" s="8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" ref="N48:N106" si="0">J48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" ref="O48:O106" si="1">IF(K48&lt;2800,2910,K48)</f>
+        <v>2910</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" ref="P48:P106" si="2">L48</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="6" t="str">
+        <f t="shared" ref="R48:R106" si="3">N48&amp;","&amp;O48&amp;","&amp;P48</f>
+        <v>0,2910,0</v>
       </c>
     </row>
     <row r="49" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="7">
-        <v>4001</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>116</v>
+        <v>1004</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E49" s="8">
-        <v>40001</v>
+        <v>10004</v>
       </c>
       <c r="F49" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="N49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2767,22 +2605,22 @@
     </row>
     <row r="50" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7">
-        <v>4002</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>118</v>
+        <v>1005</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E50" s="8">
-        <v>40002</v>
+        <v>10005</v>
       </c>
       <c r="F50" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" si="0"/>
@@ -2803,22 +2641,22 @@
     </row>
     <row r="51" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="7">
-        <v>4003</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>121</v>
+        <v>1006</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E51" s="8">
-        <v>40003</v>
+        <v>10006</v>
       </c>
       <c r="F51" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>123</v>
+        <v>30</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="N51" s="6">
         <f t="shared" si="0"/>
@@ -2839,22 +2677,22 @@
     </row>
     <row r="52" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="7">
-        <v>4004</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>124</v>
+        <v>1007</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E52" s="8">
-        <v>40004</v>
+        <v>10007</v>
       </c>
       <c r="F52" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="N52" s="6">
         <f t="shared" si="0"/>
@@ -2875,22 +2713,22 @@
     </row>
     <row r="53" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="7">
-        <v>4005</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>127</v>
+        <v>1008</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E53" s="8">
-        <v>40005</v>
+        <v>10008</v>
       </c>
       <c r="F53" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="N53" s="6">
         <f t="shared" si="0"/>
@@ -2911,22 +2749,22 @@
     </row>
     <row r="54" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="7">
-        <v>4006</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>130</v>
+        <v>1009</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E54" s="8">
-        <v>40006</v>
+        <v>10001</v>
       </c>
       <c r="F54" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>132</v>
+        <v>192</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="N54" s="6">
         <f t="shared" si="0"/>
@@ -2947,22 +2785,22 @@
     </row>
     <row r="55" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="7">
-        <v>4007</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="8">
-        <v>40007</v>
+        <v>1010</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="11">
+        <v>10002</v>
       </c>
       <c r="F55" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>135</v>
+        <v>41</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="N55" s="6">
         <f t="shared" si="0"/>
@@ -2983,22 +2821,22 @@
     </row>
     <row r="56" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="7">
-        <v>4011</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>136</v>
+        <v>1011</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E56" s="8">
-        <v>40001</v>
-      </c>
-      <c r="F56" s="11">
-        <v>15</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>137</v>
+        <v>10004</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="N56" s="6">
         <f t="shared" si="0"/>
@@ -3019,22 +2857,22 @@
     </row>
     <row r="57" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>4012</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>139</v>
+        <v>1012</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E57" s="8">
-        <v>40001</v>
-      </c>
-      <c r="F57" s="11">
-        <v>15</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>141</v>
+        <v>10008</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="N57" s="6">
         <f t="shared" si="0"/>
@@ -3055,22 +2893,22 @@
     </row>
     <row r="58" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>4013</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>142</v>
+        <v>1013</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E58" s="8">
-        <v>40003</v>
-      </c>
-      <c r="F58" s="11">
-        <v>15</v>
+        <v>10004</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>144</v>
+        <v>50</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="N58" s="6">
         <f t="shared" si="0"/>
@@ -3091,22 +2929,22 @@
     </row>
     <row r="59" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="7">
-        <v>4014</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>145</v>
+        <v>1014</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E59" s="8">
-        <v>40004</v>
-      </c>
-      <c r="F59" s="11">
-        <v>15</v>
+        <v>10007</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>147</v>
+        <v>53</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="N59" s="6">
         <f t="shared" si="0"/>
@@ -3127,23 +2965,21 @@
     </row>
     <row r="60" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="7">
-        <v>4015</v>
+        <v>2001</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="E60" s="8">
-        <v>40006</v>
-      </c>
-      <c r="F60" s="11">
+        <v>20001</v>
+      </c>
+      <c r="F60" s="8">
         <v>15</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>150</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H60" s="13"/>
       <c r="N60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3163,22 +2999,22 @@
     </row>
     <row r="61" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="7">
-        <v>4016</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>151</v>
+        <v>2002</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E61" s="8">
-        <v>40002</v>
-      </c>
-      <c r="F61" s="11">
+        <v>20002</v>
+      </c>
+      <c r="F61" s="8">
         <v>15</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>153</v>
+        <v>58</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="N61" s="6">
         <f t="shared" si="0"/>
@@ -3199,19 +3035,22 @@
     </row>
     <row r="62" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="7">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="E62" s="8">
-        <v>50001</v>
-      </c>
-      <c r="F62" s="11">
+        <v>20003</v>
+      </c>
+      <c r="F62" s="8">
         <v>15</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>155</v>
+        <v>61</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="N62" s="6">
         <f t="shared" si="0"/>
@@ -3232,22 +3071,22 @@
     </row>
     <row r="63" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="7">
-        <v>5002</v>
+        <v>2004</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="E63" s="8">
-        <v>50002</v>
-      </c>
-      <c r="F63" s="11">
+        <v>20004</v>
+      </c>
+      <c r="F63" s="8">
         <v>15</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="N63" s="6">
         <f t="shared" si="0"/>
@@ -3268,22 +3107,22 @@
     </row>
     <row r="64" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="7">
-        <v>5003</v>
+        <v>2005</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="E64" s="8">
-        <v>50003</v>
-      </c>
-      <c r="F64" s="11">
+        <v>20005</v>
+      </c>
+      <c r="F64" s="8">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>161</v>
+        <v>67</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="N64" s="6">
         <f t="shared" si="0"/>
@@ -3304,22 +3143,22 @@
     </row>
     <row r="65" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="7">
-        <v>5004</v>
+        <v>2011</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="E65" s="8">
-        <v>50004</v>
-      </c>
-      <c r="F65" s="11">
+        <v>20001</v>
+      </c>
+      <c r="F65" s="8">
         <v>15</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>164</v>
+        <v>70</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="N65" s="6">
         <f t="shared" si="0"/>
@@ -3340,22 +3179,22 @@
     </row>
     <row r="66" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="7">
-        <v>5005</v>
+        <v>2012</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="E66" s="8">
-        <v>50005</v>
-      </c>
-      <c r="F66" s="11">
+        <v>20002</v>
+      </c>
+      <c r="F66" s="8">
         <v>15</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>167</v>
+        <v>73</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="N66" s="6">
         <f t="shared" si="0"/>
@@ -3376,22 +3215,22 @@
     </row>
     <row r="67" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="7">
-        <v>5006</v>
+        <v>2013</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E67" s="8">
-        <v>50006</v>
-      </c>
-      <c r="F67" s="11">
+        <v>20001</v>
+      </c>
+      <c r="F67" s="8">
         <v>15</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="N67" s="6">
         <f t="shared" si="0"/>
@@ -3412,22 +3251,22 @@
     </row>
     <row r="68" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7">
-        <v>5007</v>
+        <v>2014</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="E68" s="8">
-        <v>50007</v>
-      </c>
-      <c r="F68" s="11">
+        <v>20004</v>
+      </c>
+      <c r="F68" s="8">
         <v>15</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="N68" s="6">
         <f t="shared" si="0"/>
@@ -3448,23 +3287,21 @@
     </row>
     <row r="69" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="7">
-        <v>5011</v>
+        <v>3001</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E69" s="8">
-        <v>50001</v>
-      </c>
-      <c r="F69" s="11">
+        <v>30001</v>
+      </c>
+      <c r="F69" s="8">
         <v>15</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>176</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H69" s="13"/>
       <c r="N69" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3484,22 +3321,22 @@
     </row>
     <row r="70" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="7">
-        <v>5012</v>
+        <v>3002</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="E70" s="8">
-        <v>50002</v>
-      </c>
-      <c r="F70" s="11">
+        <v>30002</v>
+      </c>
+      <c r="F70" s="8">
         <v>15</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>179</v>
+        <v>84</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="N70" s="6">
         <f t="shared" si="0"/>
@@ -3520,22 +3357,22 @@
     </row>
     <row r="71" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="7">
-        <v>5013</v>
+        <v>3003</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="E71" s="8">
-        <v>50003</v>
-      </c>
-      <c r="F71" s="11">
+        <v>30003</v>
+      </c>
+      <c r="F71" s="8">
         <v>15</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>182</v>
+        <v>87</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="N71" s="6">
         <f t="shared" si="0"/>
@@ -3556,22 +3393,22 @@
     </row>
     <row r="72" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="7">
-        <v>5014</v>
+        <v>3004</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="E72" s="8">
-        <v>50004</v>
-      </c>
-      <c r="F72" s="11">
+        <v>30004</v>
+      </c>
+      <c r="F72" s="8">
         <v>15</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>185</v>
+        <v>90</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="N72" s="6">
         <f t="shared" si="0"/>
@@ -3592,22 +3429,22 @@
     </row>
     <row r="73" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="7">
-        <v>5015</v>
+        <v>3005</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="E73" s="8">
-        <v>50005</v>
-      </c>
-      <c r="F73" s="11">
+        <v>30005</v>
+      </c>
+      <c r="F73" s="8">
         <v>15</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>188</v>
+        <v>93</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="N73" s="6">
         <f t="shared" si="0"/>
@@ -3628,36 +3465,1167 @@
     </row>
     <row r="74" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="7">
-        <v>5016</v>
+        <v>3006</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="E74" s="8">
-        <v>50006</v>
+        <v>30006</v>
       </c>
       <c r="F74" s="8">
         <v>15</v>
       </c>
       <c r="G74" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P74" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="7">
+        <v>3011</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="8">
+        <v>30001</v>
+      </c>
+      <c r="F75" s="8">
+        <v>15</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P75" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7">
+        <v>3012</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="8">
+        <v>30002</v>
+      </c>
+      <c r="F76" s="8">
+        <v>15</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N76" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P76" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="7">
+        <v>3013</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="8">
+        <v>30002</v>
+      </c>
+      <c r="F77" s="8">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N77" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P77" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7">
+        <v>3014</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="8">
+        <v>30004</v>
+      </c>
+      <c r="F78" s="8">
+        <v>15</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N78" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P78" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7">
+        <v>3015</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="8">
+        <v>30005</v>
+      </c>
+      <c r="F79" s="8">
+        <v>15</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N79" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P79" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7">
+        <v>3016</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="8">
+        <v>30006</v>
+      </c>
+      <c r="F80" s="8">
+        <v>16</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7">
+        <v>4001</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="8">
+        <v>40001</v>
+      </c>
+      <c r="F81" s="8">
+        <v>15</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="N81" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P81" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7">
+        <v>4002</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="8">
+        <v>40002</v>
+      </c>
+      <c r="F82" s="8">
+        <v>15</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P82" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7">
+        <v>4003</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="8">
+        <v>40003</v>
+      </c>
+      <c r="F83" s="8">
+        <v>15</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P83" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7">
+        <v>4004</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="8">
+        <v>40004</v>
+      </c>
+      <c r="F84" s="8">
+        <v>15</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P84" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7">
+        <v>4005</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="8">
+        <v>40005</v>
+      </c>
+      <c r="F85" s="8">
+        <v>15</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P85" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7">
+        <v>4006</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="8">
+        <v>40006</v>
+      </c>
+      <c r="F86" s="8">
+        <v>15</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P86" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="7">
+        <v>4007</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="8">
+        <v>40007</v>
+      </c>
+      <c r="F87" s="8">
+        <v>15</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P87" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7">
+        <v>4011</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="8">
+        <v>40001</v>
+      </c>
+      <c r="F88" s="11">
+        <v>15</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P88" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="7">
+        <v>4012</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="8">
+        <v>40001</v>
+      </c>
+      <c r="F89" s="11">
+        <v>15</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N89" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P89" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7">
+        <v>4013</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="8">
+        <v>40003</v>
+      </c>
+      <c r="F90" s="11">
+        <v>15</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P90" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="7">
+        <v>4014</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="8">
+        <v>40004</v>
+      </c>
+      <c r="F91" s="11">
+        <v>15</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P91" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7">
+        <v>4015</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="8">
+        <v>40006</v>
+      </c>
+      <c r="F92" s="11">
+        <v>15</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="N92" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P92" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="7">
+        <v>4016</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="8">
+        <v>40002</v>
+      </c>
+      <c r="F93" s="11">
+        <v>15</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P93" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7">
+        <v>5001</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="8">
+        <v>50001</v>
+      </c>
+      <c r="F94" s="11">
+        <v>15</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N94" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P94" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="7">
+        <v>5002</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E95" s="8">
+        <v>50002</v>
+      </c>
+      <c r="F95" s="11">
+        <v>15</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N95" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P95" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7">
+        <v>5003</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="8">
+        <v>50003</v>
+      </c>
+      <c r="F96" s="11">
+        <v>15</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="N96" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P96" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="7">
+        <v>5004</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="8">
+        <v>50004</v>
+      </c>
+      <c r="F97" s="11">
+        <v>15</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="N97" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P97" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7">
+        <v>5005</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="8">
+        <v>50005</v>
+      </c>
+      <c r="F98" s="11">
+        <v>15</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N98" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P98" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="7">
+        <v>5006</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="8">
+        <v>50006</v>
+      </c>
+      <c r="F99" s="11">
+        <v>15</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N99" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P99" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7">
+        <v>5007</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" s="8">
+        <v>50007</v>
+      </c>
+      <c r="F100" s="11">
+        <v>15</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N100" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P100" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="7">
+        <v>5011</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E101" s="8">
+        <v>50001</v>
+      </c>
+      <c r="F101" s="11">
+        <v>15</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="N101" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P101" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7">
+        <v>5012</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="8">
+        <v>50002</v>
+      </c>
+      <c r="F102" s="11">
+        <v>15</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N102" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P102" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="7">
+        <v>5013</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" s="8">
+        <v>50003</v>
+      </c>
+      <c r="F103" s="11">
+        <v>15</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="N103" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P103" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7">
+        <v>5014</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" s="8">
+        <v>50004</v>
+      </c>
+      <c r="F104" s="11">
+        <v>15</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="N104" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P104" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="7">
+        <v>5015</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" s="8">
+        <v>50005</v>
+      </c>
+      <c r="F105" s="11">
+        <v>15</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N105" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P105" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2910,0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7">
+        <v>5016</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="8">
+        <v>50006</v>
+      </c>
+      <c r="F106" s="8">
+        <v>15</v>
+      </c>
+      <c r="G106" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H106" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N74" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="6">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="P74" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="6" t="str">
+      <c r="N106" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="6">
+        <f t="shared" si="1"/>
+        <v>2910</v>
+      </c>
+      <c r="P106" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,2910,0</v>
       </c>

--- a/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9627765-A510-4E4D-BCD6-9F380CC04E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20502072-5D2E-4701-9A1A-F7A301947564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
   <si>
     <t>Id</t>
   </si>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>-2130,50,-1755</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1290,50,-17390</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -465,6 +461,14 @@
   </si>
   <si>
     <t>-2115,-103,-18660</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2130,50,-17555</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5623,-30,-138</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1013,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>46</v>
@@ -1408,7 +1412,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1465,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>61</v>
@@ -1485,7 +1489,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>63</v>
@@ -1548,7 +1552,7 @@
         <v>61</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1585,7 +1589,7 @@
         <v>42</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>73</v>
@@ -1605,7 +1609,7 @@
         <v>44</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>75</v>
@@ -1625,7 +1629,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>77</v>
@@ -1645,7 +1649,7 @@
         <v>46</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>79</v>
@@ -1745,7 +1749,7 @@
         <v>52</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>89</v>
@@ -1765,7 +1769,7 @@
         <v>54</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>91</v>
@@ -1785,7 +1789,7 @@
         <v>55</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>92</v>
@@ -1805,7 +1809,7 @@
         <v>56</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>94</v>

--- a/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20502072-5D2E-4701-9A1A-F7A301947564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D899EDE-F27F-4235-896A-F8D41200CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -68,407 +68,411 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>洛兰郊外</t>
+    <t>7088,210,-262</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2078,209,1237</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7171,215,-2890</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2179,210,1963</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7042,209,-2473</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1641,215,-262</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1784,215,-496</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2469,210,2021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2019,215,-199</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2069,215,-496</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1438,19,-3223</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城遗址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹圣地一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹圣地二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往沙漠遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往古城遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往沙漠之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往洛兰郊外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往洛兰深处</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往荒谷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往荒灵之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往遗迹圣地一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2314,-38,2687</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5623,-30,-180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5995,-26,-137</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7395,-50,-1220</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2496,-50,-825</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3282,843,20651</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6176,843,18803</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下矿洞一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下矿洞二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下矿洞三层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往山谷之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往山谷遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往地下矿洞一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往地下矿洞二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5276,248,-10230</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>155,249,-15149</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4941,249,-2897</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1628,-63,-14790</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9885,-63,-12290</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8194,-103,-6456</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1917,-26,-17620</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰森营地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵城堡一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵城堡二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往奇幻冰森</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往冰森营地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往精灵之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往精灵城堡一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1170,34,4442</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1607,11,4535</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3167,11,-4380</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4817,6,-3756</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2040,6,-2119</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4934,31,1264</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4511,31,-2908</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4294,3,-3656</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灵神庙一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灵神庙二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灵之巢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往影月之地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往勇者之路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往暗灵神庙一层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往暗灵神庙二层</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3672,0,-4869</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5429,0,-1597</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3709,0,4114</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>610,1175,5472</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>305,1286,-4808</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2502,1401,4938</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4206,1819,-6932</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-926,1050,2669</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5765,50,-137</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6030,50,-1220</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2542,843,20621</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3946,750,-4448</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>74,465,-14370</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9115,50,-12310</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1290,50,-17390</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1459,148,3810</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4817,178,-3071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3800,180,1300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4294,143,-2850</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4540,116,-1597</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>305,1286,-4808</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4107,1512,-5749</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-136,722,2372</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3915,619,-5102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2115,-103,-18660</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2130,50,-17555</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5623,-30,-138</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6176,943,18803</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>洛兰深处</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>荒谷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>荒灵之地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7088,210,-262</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2078,209,1237</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7171,215,-2890</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2179,210,1963</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7042,209,-2473</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1641,215,-262</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1784,215,-496</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2469,210,2021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2350,209,1526</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2019,215,-199</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2069,215,-496</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1438,19,-3223</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>古城遗址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗迹圣地一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗迹圣地二层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往沙漠遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往古城遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往沙漠之地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往洛兰郊外</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往洛兰深处</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往荒谷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往荒灵之地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往遗迹圣地一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2314,-38,2687</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5623,-30,-180</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5995,-26,-137</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7395,-50,-1220</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2496,-50,-825</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3282,843,20651</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6176,843,18803</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>山谷遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下矿洞一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下矿洞二层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下矿洞三层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往山谷之地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往山谷遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往地下矿洞一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往地下矿洞二层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5276,248,-10230</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>155,249,-15149</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4941,249,-2897</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1628,-63,-14790</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-9885,-63,-12290</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8194,-103,-6456</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1917,-26,-17620</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰森营地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵之路</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵城堡一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵城堡二层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往奇幻冰森</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往冰森营地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往精灵之路</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往精灵城堡一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1170,34,4442</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1607,11,4535</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3167,11,-4380</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4817,6,-3756</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2040,6,-2119</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4934,31,1264</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4511,31,-2908</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4294,3,-3656</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇者之路</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灵神庙一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灵神庙二层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灵之巢</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往影月之地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往勇者之路</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往暗灵神庙一层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往暗灵神庙二层</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3672,0,-4869</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5429,0,-1597</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3709,0,4114</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>610,1175,5472</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>305,1286,-4808</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2502,1401,4938</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4206,1819,-6932</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-926,1050,2669</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5765,50,-137</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6030,50,-1220</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2542,843,20621</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3946,750,-4448</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>74,465,-14370</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-9115,50,-12310</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1290,50,-17390</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1459,148,3810</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4817,178,-3071</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3800,180,1300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4294,143,-2850</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4540,116,-1597</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>305,1286,-4808</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4107,1512,-5749</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-136,722,2372</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3915,619,-5102</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2115,-103,-18660</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2130,50,-17555</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5623,-30,-138</t>
+  </si>
+  <si>
+    <t>失落营地</t>
+  </si>
+  <si>
+    <t>7092,209,-2493</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5517,249,-1792</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1017,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1104,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4">
         <v>10002</v>
@@ -1109,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>14</v>
@@ -1120,7 +1124,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E7" s="4">
         <v>10003</v>
@@ -1129,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1140,7 +1144,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E8" s="4">
         <v>10004</v>
@@ -1149,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1160,7 +1164,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E9" s="4">
         <v>10005</v>
@@ -1169,10 +1173,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,7 +1184,7 @@
         <v>10011</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4">
         <v>10001</v>
@@ -1189,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1200,7 +1204,7 @@
         <v>10012</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>10002</v>
@@ -1209,10 +1213,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1220,7 +1224,7 @@
         <v>10013</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4">
         <v>10003</v>
@@ -1229,10 +1233,10 @@
         <v>6</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,7 +1244,7 @@
         <v>10014</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4">
         <v>10004</v>
@@ -1249,10 +1253,10 @@
         <v>6</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1264,7 @@
         <v>20001</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" s="11">
         <v>20002</v>
@@ -1269,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1280,7 +1284,7 @@
         <v>20002</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E15" s="11">
         <v>20003</v>
@@ -1289,10 +1293,10 @@
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1304,7 @@
         <v>20003</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E16" s="11">
         <v>20004</v>
@@ -1309,10 +1313,10 @@
         <v>25</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1324,7 @@
         <v>20004</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" s="11">
         <v>20005</v>
@@ -1329,10 +1333,10 @@
         <v>27</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1340,7 +1344,7 @@
         <v>20011</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E18" s="11">
         <v>20001</v>
@@ -1349,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1364,7 @@
         <v>20012</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E19" s="11">
         <v>20002</v>
@@ -1369,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,7 +1384,7 @@
         <v>20013</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E20" s="11">
         <v>20003</v>
@@ -1389,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1400,7 +1404,7 @@
         <v>20014</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E21" s="11">
         <v>20004</v>
@@ -1409,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,7 +1424,7 @@
         <v>30001</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E22" s="11">
         <v>30002</v>
@@ -1429,10 +1433,10 @@
         <v>32</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1440,7 +1444,7 @@
         <v>30002</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E23" s="11">
         <v>30003</v>
@@ -1449,10 +1453,10 @@
         <v>34</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1460,7 +1464,7 @@
         <v>30003</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24" s="11">
         <v>30004</v>
@@ -1469,10 +1473,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,7 +1484,7 @@
         <v>30004</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="11">
         <v>30005</v>
@@ -1489,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1500,7 +1504,7 @@
         <v>30011</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E26" s="11">
         <v>30001</v>
@@ -1509,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1520,7 +1524,7 @@
         <v>30012</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E27" s="11">
         <v>30002</v>
@@ -1529,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1540,7 +1544,7 @@
         <v>30013</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E28" s="11">
         <v>30003</v>
@@ -1549,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1564,7 @@
         <v>30014</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E29" s="11">
         <v>30004</v>
@@ -1569,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1580,7 +1584,7 @@
         <v>40001</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11">
         <v>40002</v>
@@ -1589,10 +1593,10 @@
         <v>42</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,7 +1604,7 @@
         <v>40002</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E31" s="11">
         <v>40003</v>
@@ -1609,10 +1613,10 @@
         <v>44</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,7 +1624,7 @@
         <v>40003</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E32" s="11">
         <v>40004</v>
@@ -1629,10 +1633,10 @@
         <v>45</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1640,7 +1644,7 @@
         <v>40004</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E33" s="11">
         <v>40005</v>
@@ -1649,10 +1653,10 @@
         <v>46</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,7 +1664,7 @@
         <v>40011</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34" s="11">
         <v>40001</v>
@@ -1669,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1684,7 @@
         <v>40012</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E35" s="11">
         <v>40002</v>
@@ -1689,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1700,7 +1704,7 @@
         <v>40013</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E36" s="11">
         <v>40003</v>
@@ -1709,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,7 +1724,7 @@
         <v>40014</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E37" s="11">
         <v>40004</v>
@@ -1729,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1740,7 +1744,7 @@
         <v>50001</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E38" s="11">
         <v>50002</v>
@@ -1749,10 +1753,10 @@
         <v>52</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1760,7 +1764,7 @@
         <v>50002</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E39" s="11">
         <v>50003</v>
@@ -1769,10 +1773,10 @@
         <v>54</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,7 +1784,7 @@
         <v>50003</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E40" s="11">
         <v>50004</v>
@@ -1789,10 +1793,10 @@
         <v>55</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1804,7 @@
         <v>50004</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E41" s="11">
         <v>50005</v>
@@ -1809,10 +1813,10 @@
         <v>56</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1820,7 +1824,7 @@
         <v>50011</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E42" s="11">
         <v>50001</v>
@@ -1829,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,7 +1844,7 @@
         <v>50012</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E43" s="11">
         <v>50002</v>
@@ -1849,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1864,7 @@
         <v>50013</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E44" s="11">
         <v>50003</v>
@@ -1869,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1880,7 +1884,7 @@
         <v>50014</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E45" s="11">
         <v>50004</v>
@@ -1889,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonTransferConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D899EDE-F27F-4235-896A-F8D41200CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB3DB5-D411-4C22-9323-334A16F6D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -473,6 +473,14 @@
   </si>
   <si>
     <t>5517,249,-1792</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>610,1275,5472</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2502,1501,4938</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1021,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1804,7 @@
         <v>105</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,7 +1824,7 @@
         <v>106</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
